--- a/experiments/capital/bert-base-uncased_15/99/incorrect_predictions.xlsx
+++ b/experiments/capital/bert-base-uncased_15/99/incorrect_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,71 +487,71 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>When exceeding nnn,</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft is tilted</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Current flight speed is nnn</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,16 +612,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
+          <t>Cancel Return-to-Home Failed .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -631,27 +631,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone . RTH may be affected . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RTH may be affected</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,46 +662,46 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,46 +712,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Downlink data connection lost for nnn</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode . Enable Multiple Flight Modes in Settings menu to change .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Enable Multiple Flight Modes in Settings menu to change</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6-14</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Compass error , calibration required .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>calibration required</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,21 +787,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,21 +812,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn</t>
+          <t>Aircraft may be in violation of local laws</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>5-12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,16 +862,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>During Smart Track,</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -887,46 +887,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode .</t>
+          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode and hovering may be unstable</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D)</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,26 +1012,51 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>159</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cannot Takeoff</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Missing</t>
         </is>
       </c>
     </row>
